--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,24 +494,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VO1N</t>
+          <t>VN59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>radikove Warzone Warzone Warzone [TQAKITRY: BH #</t>
+          <t>’"Sakura</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="F3" t="n">
         <v>1305</v>
@@ -524,23 +524,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HxC</t>
+          <t>VO1N</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>De Warzone MC]De #</t>
+          <t>radikove Warzone EE Moneneasoe #</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F4" t="n">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="5">
@@ -550,23 +550,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Smrf</t>
+          <t>HxC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Smurf Warzone mrf]Smurf #</t>
+          <t>De</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="F5" t="n">
-        <v>1313</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="6">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Smurf</t>
+          <t>Smurf #</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -602,23 +602,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>Smrf</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hodumaru #</t>
+          <t>Smurf</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1306</v>
+        <v>1313</v>
       </c>
       <c r="F7" t="n">
-        <v>1306</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="8">
@@ -632,19 +632,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Msz</t>
+          <t>NHI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Warzone marten #</t>
+          <t>}nobita45 Warzone nobi #</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="F8" t="n">
-        <v>1303</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NHI</t>
+          <t>aResjLadyD Warzone aREs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>}nobita45 Warzone nobi #</t>
+          <t>LadyDragus #</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="F9" t="n">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="10">
@@ -684,19 +684,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>aResjLadyD Warzone aREs</t>
+          <t>FIND</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LadyDragus #</t>
+          <t>Warzone QAK]Caesar oak ASA #</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F10" t="n">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11">
@@ -710,19 +710,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ENDL</t>
+          <t>FIND</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lanhula #</t>
+          <t>Warzone ABA #</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F11" t="n">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="12">
@@ -736,16 +736,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FIND</t>
+          <t>TQAK</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Warzone QAK]Caesar oak ABA #</t>
+          <t>Caesar</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F12" t="n">
         <v>1301</v>
@@ -754,53 +754,53 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ENDL</t>
+          <t>XINN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lanhula Warzone [aREs]LadyDragus Tass</t>
+          <t>Glory24</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="F13" t="n">
-        <v>1304</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>aREs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JoxXaum Warzone . #</t>
+          <t>DeepShark Warzone - #</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="F14" t="n">
-        <v>1301</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="15">
@@ -810,55 +810,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>aREs</t>
+          <t>FEnx</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DeepShark</t>
+          <t>Wilhelm #</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="F15" t="n">
-        <v>1304</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SARS</t>
+          <t>HYV</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AgoNyTR [FEnx]Wilhelm</t>
+          <t>Im2iateAgal Warzone im #</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F16" t="n">
-        <v>1315</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -866,71 +866,71 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HYV</t>
+          <t>B3ar</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>im2iateAgai Warzone m: #</t>
+          <t>Manic</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F17" t="n">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wip</t>
+          <t>aREs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>Vo Warzone jaREs]Vo #</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="F18" t="n">
-        <v>852</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B3ar</t>
+          <t>AN2F</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TotalGamer</t>
+          <t>5499SE</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="F19" t="n">
-        <v>1308</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="20">
@@ -940,55 +940,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>aREs</t>
+          <t>KORa</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Vo Warzone jaREs]Vo #</t>
+          <t>SaDam #</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="n">
-        <v>1304</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AN2F</t>
+          <t>NHI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5499SE</t>
+          <t>Bee #</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="F21" t="n">
-        <v>1316</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -996,25 +996,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NHI</t>
+          <t>BTW</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bee #</t>
+          <t>Warzone [Msz] CLE y #</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="F22" t="n">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1022,25 +1022,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>aREs</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PugRa</t>
-        </is>
+          <t>Msz</t>
+        </is>
+      </c>
+      <c r="D23">
+        <f>[aTwiy Warzone</f>
+        <v/>
       </c>
       <c r="E23" t="n">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="F23" t="n">
-        <v>1304</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1048,19 +1047,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BTW</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Warzone [Msz] (Msol</t>
+          <t>Neul Warzone eu! #</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1303</v>
+        <v>1674</v>
       </c>
       <c r="F24" t="n">
-        <v>205</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="25">
@@ -1070,23 +1069,23 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>AC1D</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Neul Warzone eul #</t>
+          <t>H1ccUP #</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1674</v>
+        <v>1309</v>
       </c>
       <c r="F25" t="n">
-        <v>1306</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="26">
@@ -1096,7 +1095,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1109,7 +1108,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1302</v>
+        <v>39</v>
       </c>
       <c r="F26" t="n">
         <v>1302</v>
@@ -1122,7 +1121,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1148,23 +1147,23 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GLOR</t>
+          <t>KORa</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SpeEdyGonZaLes__</t>
+          <t>Let</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="n">
-        <v>1302</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="29">
@@ -1174,107 +1173,107 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FEnx</t>
+          <t>Fenx</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>s wareone 3S #</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>119</v>
       </c>
       <c r="F29" t="n">
-        <v>1315</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FEnx</t>
+          <t>TOAK</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>BombBabyBomb</t>
+          <t>FakeYeyee</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="F30" t="n">
-        <v>1315</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EVMU</t>
+          <t>FEnx</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>#23E® [NHIJLinh Warzone Warzone (euMulseil #</t>
+          <t>Warzone B50] #</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1314</v>
+        <v>119</v>
       </c>
       <c r="F31" t="n">
-        <v>1307</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DKBs</t>
+          <t>XINN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>neko Warzone s]neko #</t>
+          <t>SASEREMoonlint.. #</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="F32" t="n">
-        <v>1303</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1282,25 +1281,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fem</t>
+          <t>FEnx</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Warzone ray ZA, #</t>
+          <t>BombBabyBomb</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1306</v>
+        <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>1306</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1308,25 +1307,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GLOR</t>
+          <t>NHIJLinh [EVMU</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Midra #</t>
+          <t>#21E® (euMulseil #</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1302</v>
+        <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>1302</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1334,25 +1333,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ACID</t>
+          <t>NHI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>iLLestbigshot iLlestbigshot #</t>
+          <t>Linh [EUMU]ZEO #</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="F35" t="n">
-        <v>1303</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1360,25 +1359,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GLOR</t>
+          <t>CG9</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Midra</t>
+          <t>2415</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>235</v>
+        <v>1305</v>
       </c>
       <c r="F36" t="n">
-        <v>1302</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1386,19 +1385,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AC1D</t>
+          <t>DKBs</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iLLestbigshot iLLestbigshot #</t>
+          <t>neko Warzone s]neka #</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="F37" t="n">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="38">
@@ -1408,68 +1407,68 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A10W)</t>
+          <t>Fem</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Provthedud</t>
+          <t>Warzone ray ZA, #</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F38" t="n">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VVip</t>
+          <t>GLOR</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mad Warzone ts. #</t>
+          <t>Midra #</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="F39" t="n">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Msz</t>
+          <t>ACID</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>kufuking</t>
+          <t>iLLestbigshot iLlestbigshot #</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1482,53 +1481,53 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>XINN</t>
+          <t>AC1D</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ThanhSport</t>
+          <t>iLLestbigshot Warzone</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>788</v>
+        <v>1302</v>
       </c>
       <c r="F41" t="n">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A10U</t>
+          <t>Msz</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Foxlum Warzone ‘oxium #</t>
+          <t>kufuking</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42</v>
+        <v>1303</v>
       </c>
       <c r="F42" t="n">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="43">
@@ -1538,23 +1537,23 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RlSe</t>
+          <t>XINN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>gtsaurus</t>
+          <t>ThanhSport</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1316</v>
+        <v>788</v>
       </c>
       <c r="F43" t="n">
-        <v>1316</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="44">
@@ -1564,20 +1563,20 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HORA</t>
+          <t>A10U</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Warzone al #</t>
+          <t>Foxlum Warzone ‘oxium #</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1312</v>
+        <v>42</v>
       </c>
       <c r="F44" t="n">
         <v>1312</v>
@@ -1590,16 +1589,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOFJBlossom [TWEG</t>
+          <t>SOFJBlossom [TLW66</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Advance musortracacnne #</t>
+          <t>warcone Advance musortracacnne #</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1616,23 +1615,23 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>A10W</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BI Warzone ossomHana #</t>
+          <t>Foxium #</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1306</v>
+        <v>42</v>
       </c>
       <c r="F46" t="n">
-        <v>1306</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="47">
@@ -1642,120 +1641,120 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>vic</t>
+          <t>RISe</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Warzone wa #</t>
+          <t>RiSe]gtsaurus #</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1309</v>
+        <v>1316</v>
       </c>
       <c r="F47" t="n">
-        <v>1309</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>vic</t>
+          <t>KORA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>41=- Warzone wanes #</t>
+          <t>Warzone al #</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="F48" t="n">
-        <v>1309</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GLOW</t>
+          <t>TUES</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Glow [XINN]Fresh Warzone Warzone [7ARQ]I XINN]Fres! #</t>
+          <t>ees #</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23</v>
+        <v>1307</v>
       </c>
       <c r="F49" t="n">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>XINN</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fresh</t>
+          <t>Blossom #</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="F50" t="n">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DFTL</t>
+          <t>TQAK</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hagao jagao #</t>
+          <t>BG Advance #</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1768,7 +1767,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1776,25 +1775,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PNDaljippeoo2 [BFUN</t>
+          <t>XTRM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>hUngso Warzone Warzone jaljippe #</t>
+          <t>splinter1 Commander</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="F52" t="n">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1802,25 +1801,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RVX</t>
+          <t>ITQAK</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bubu wbUNTSO #</t>
+          <t>Warzone aR #</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="F53" t="n">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1828,25 +1827,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>vic</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Fighter</t>
+          <t>41=- Warzone wanes #</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6269</v>
+        <v>1309</v>
       </c>
       <c r="F54" t="n">
-        <v>6269</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1854,18 +1853,226 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A10W</t>
+          <t>GLOW</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Whiskey #</t>
+          <t>Glow Warzone [7ARQ]I</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>102</v>
+        <v>1306</v>
       </c>
       <c r="F55" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>XINN</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Fresh XINN]Fres! #</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>23</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GLOW)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Glow INN] Fresh #</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1306</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PNDaljippeoo2 [BFUN</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>hUngso Warzone Warzone jaljippe #</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1303</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>RVX</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Bubu wbUNTSO #</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1305</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>V10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Fighter</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>6269</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>s00E|Marcorrx Warzone [DWS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Magic Warzone Lenuayippevuc</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1301</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>V/10</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Fighter</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1308</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A1OW</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Whiskey DOKAIThINN #</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1102</v>
+      </c>
+      <c r="F63" t="n">
         <v>1305</v>
       </c>
     </row>
